--- a/Data/Config_status.xlsx
+++ b/Data/Config_status.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="140">
   <si>
     <t>Name</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>C:\common\Backup\ReportforAQCStatus.xlsx</t>
+  </si>
+  <si>
+    <t>sss</t>
   </si>
 </sst>
 </file>
@@ -972,7 +975,7 @@
   <dimension ref="A1:Z969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1170,9 @@
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
-      <c r="B19" s="13"/>
+      <c r="B19" s="13" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
